--- a/experiment result/64_0.9_40_zs10_kappa_lp.xlsx
+++ b/experiment result/64_0.9_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003238839347511594</v>
+        <v>0.002579125060307351</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00346481150025092</v>
+        <v>0.0004630025486767668</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009599800349711075</v>
+        <v>0.01665854185471664</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01231005654998401</v>
+        <v>0.02252232008865621</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.008705188148719904</v>
+        <v>0.01730712932234306</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.007582403689852408</v>
+        <v>0.00604279235369163</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01235967713090419</v>
+        <v>0.0043633407772771</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.005944578232321656</v>
+        <v>0.000785504270198281</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007144457057960923</v>
+        <v>0.01012146753795154</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01622880244990962</v>
+        <v>0.01689063626186808</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01862987416651165</v>
+        <v>0.02446776447149296</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01417480121719262</v>
+        <v>0.07152225757463161</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.007971052408999891</v>
+        <v>0.001237022355974139</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01757019498277577</v>
+        <v>0.02432512920710333</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01267021620330309</v>
+        <v>0.002765601506669457</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.009786462095405742</v>
+        <v>0.005021212641391677</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0092722808504476</v>
+        <v>0.01019096542106385</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.004380897562220891</v>
+        <v>0.0002308298604804011</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01108303291251853</v>
+        <v>0.006973280008378791</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01120829234871281</v>
+        <v>0.004384814578701196</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.008295032428618699</v>
+        <v>0.005015309260054918</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.007636519801136385</v>
+        <v>0.001307171160218544</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.007389310126814391</v>
+        <v>0.01385756025973376</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.002810455984189852</v>
+        <v>0.000757835490213287</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.002556206579048964</v>
+        <v>0.0008043530848606976</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01189015565351783</v>
+        <v>0.02317573381157991</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.006854257301575876</v>
+        <v>0.002889072760456718</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.009250506004647979</v>
+        <v>0.0130565578169632</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.005982181455952962</v>
+        <v>0.00637008650723461</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01288538585677107</v>
+        <v>0.01277943273440075</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.005056914036274307</v>
+        <v>0.00126085599341213</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0130187198167396</v>
+        <v>0.007291501295338213</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.009168446820313753</v>
+        <v>0.005979220301391997</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.004792190864853311</v>
+        <v>0.0005661281105338616</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01015703631779806</v>
+        <v>0.008555754990158839</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.009937044641621364</v>
+        <v>0.007723210818943377</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.007121675546984408</v>
+        <v>0.002648488041796522</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01026962906432971</v>
+        <v>0.00316090407829796</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.007851408861016269</v>
+        <v>0.001516127193942025</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01065297267732515</v>
+        <v>0.02700214089972225</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01255024448564196</v>
+        <v>0.01660301808556157</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.007302853229929805</v>
+        <v>0.01290331958580524</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01231177215489176</v>
+        <v>0.007852313381950932</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01158250338971984</v>
+        <v>0.00760482404585292</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.008564400644782725</v>
+        <v>0.001180819702251895</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01059072299761823</v>
+        <v>0.004177130709427352</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.006759206220893606</v>
+        <v>0.003856618269262387</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.005492094528068835</v>
+        <v>0.0004122359134633829</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01140286253078445</v>
+        <v>0.009236943644159158</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.005088728078616453</v>
+        <v>0.0004775753474946486</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01172834989204707</v>
+        <v>0.02474993098783942</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.007474962235865948</v>
+        <v>0.001644095883317443</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001422347900583486</v>
+        <v>3.340679983883846e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.004884487174225884</v>
+        <v>0.000539776147379287</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01093030776140536</v>
+        <v>0.003099385351813707</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.007347939000378679</v>
+        <v>0.004869286983627362</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.006295974183687413</v>
+        <v>0.001995441375567962</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.009187528115368233</v>
+        <v>0.0114261775340969</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.006280755235888355</v>
+        <v>0.007473953746195361</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.009769776254811516</v>
+        <v>0.0005336104714310711</v>
       </c>
     </row>
   </sheetData>
